--- a/biology/Botanique/Manilkara/Manilkara.xlsx
+++ b/biology/Botanique/Manilkara/Manilkara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manilkara est un genre de plantes à fleurs de la famille Sapotaceae. Ce sont des arbres vivant sous les tropiques. Leur proche parent est le genre Pouteria.
 Ces arbres produisent des fruits comestibles, du bois et de latex. Les espèces les plus connues sont les suivantes : Manilkara bidentata, Manilkara chicle et Manilkara zapota (sapotillier). Manilkara hexandra est l'emblème floral de la province de Prachuap Khiri Khan en Thaïlande, où il est appelé Rayan.
@@ -514,7 +526,9 @@
           <t>Différentes espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Manilkara bahamensis
